--- a/biology/Botanique/Parc_de_Kiikeli/Parc_de_Kiikeli.xlsx
+++ b/biology/Botanique/Parc_de_Kiikeli/Parc_de_Kiikeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Kiikeli (finnois : Kiikelinpuisto) est un parc situé dans le quartier de Pokkinen à Oulu en Finlande.
 </t>
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Kiikeli, situé dans les iles Kiikeli et Elba, a reçu le prix de la structure environnementale de l'année en 2002[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Kiikeli, situé dans les iles Kiikeli et Elba, a reçu le prix de la structure environnementale de l'année en 2002.
 Le parc a été conçu avec la zone résidentielle de Kiikeli, l'embouchure du fleuve Oulujoki et la place du marché d'Oulu.
 Le port de plaisance est à côté du parc.
-Le parc est planté de bouleau, Saule laurier, aulne noir et de Saule marsault et d'Argousiers[4].
+Le parc est planté de bouleau, Saule laurier, aulne noir et de Saule marsault et d'Argousiers.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Vues du parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
